--- a/order_database.xlsx
+++ b/order_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b5bd79253e10ed0a/바탕 화면/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DB33D50-9574-433D-B31B-28221E15E2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED7B2A66-9579-449E-A210-F59008B236AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EEF6FA6F-BCB9-4450-983B-E3F7A95A94F4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="406">
   <si>
     <t>제품군 대그룹 (Product Group)</t>
   </si>
@@ -801,6 +801,610 @@
   </si>
   <si>
     <t>BLX-WB</t>
+  </si>
+  <si>
+    <t>구분(신설)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.3508</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.3510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.3512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.3514</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.3516</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.3308</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.331</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.3312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.3314</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.3316</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.4508</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.451</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.9312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.9310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.9308</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.9306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.9512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.9510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.9508</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.9506</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.8312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.8310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.8308</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.8306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.8512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.851</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.8508</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.8506</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.7316</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.7314</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.7312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.731</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.7308</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.7306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.7516</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.4512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.4514</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.4516</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.4308</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.4310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.4312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.4314</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.4316</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.5508</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.5510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.5512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.5514</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.5516</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.5308</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.5310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.5312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.5314</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.5316</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.6508</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.6510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.6512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.6514</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.6516</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.6308</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLX-RB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.6310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.6312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.6314</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.6316</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.7506</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.7508</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.7510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.7512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061.7514</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.0010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.0012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.0014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.2608</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.2610</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.2612</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.2614</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.2508</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.251</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.2512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.2514</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.2308</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.231</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.2312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.2314</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.3408</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.3410</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.3412</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.3414</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.3416</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.3508</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.3510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.3512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.3514</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.3516</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.4608</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.4610</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.4612</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.4614</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.4508</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.4510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.4512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.4514</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.4308</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.4310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.4312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.4314</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.5408</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.5410</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.5412</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.5414</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.5416</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.5508</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.5510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.5512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.5514</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.5516</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.5308</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.5310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.5312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.0514</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.0516</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.6608</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.6610</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.6612</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.6614</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.6508</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.651</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.6512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.6514</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.6308</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.6310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.6312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.6314</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.7408</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.7410</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.7412</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.7414</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.7416</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.7508</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.7510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.7512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.7514</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.7516</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.7308</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.7310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.7312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.7314</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021.7316</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -846,8 +1450,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1184,10 +1791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578EDDDB-192F-44C5-9737-BF294E59B67E}">
-  <dimension ref="A1:E383"/>
+  <dimension ref="A1:F383"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F184" sqref="F184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1196,10 +1803,11 @@
     <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1212,11 +1820,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1229,11 +1840,14 @@
       <c r="D2">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1246,11 +1860,14 @@
       <c r="D3">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1263,11 +1880,14 @@
       <c r="D4">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1280,11 +1900,14 @@
       <c r="D5">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1297,11 +1920,14 @@
       <c r="D6">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1314,11 +1940,14 @@
       <c r="D7">
         <v>8</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1331,11 +1960,14 @@
       <c r="D8">
         <v>10</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1348,11 +1980,14 @@
       <c r="D9">
         <v>12</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1365,11 +2000,14 @@
       <c r="D10">
         <v>14</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1382,11 +2020,14 @@
       <c r="D11">
         <v>16</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1399,11 +2040,14 @@
       <c r="D12">
         <v>8</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1416,11 +2060,14 @@
       <c r="D13">
         <v>10</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1433,11 +2080,14 @@
       <c r="D14">
         <v>12</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1450,11 +2100,14 @@
       <c r="D15">
         <v>14</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1467,11 +2120,14 @@
       <c r="D16">
         <v>16</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1484,11 +2140,14 @@
       <c r="D17">
         <v>8</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1501,11 +2160,14 @@
       <c r="D18">
         <v>10</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1518,11 +2180,14 @@
       <c r="D19">
         <v>12</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1535,11 +2200,14 @@
       <c r="D20">
         <v>14</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1552,11 +2220,14 @@
       <c r="D21">
         <v>8</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1569,11 +2240,14 @@
       <c r="D22">
         <v>10</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1586,11 +2260,14 @@
       <c r="D23">
         <v>12</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1603,11 +2280,14 @@
       <c r="D24">
         <v>14</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1620,11 +2300,14 @@
       <c r="D25">
         <v>8</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1637,11 +2320,14 @@
       <c r="D26">
         <v>10</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1654,11 +2340,14 @@
       <c r="D27">
         <v>12</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -1671,11 +2360,14 @@
       <c r="D28">
         <v>14</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1688,11 +2380,14 @@
       <c r="D29">
         <v>6</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1705,11 +2400,14 @@
       <c r="D30">
         <v>8</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -1722,11 +2420,14 @@
       <c r="D31">
         <v>10</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -1739,11 +2440,14 @@
       <c r="D32">
         <v>12</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -1756,11 +2460,14 @@
       <c r="D33">
         <v>14</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -1773,11 +2480,14 @@
       <c r="D34">
         <v>16</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1790,11 +2500,14 @@
       <c r="D35">
         <v>8</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1807,11 +2520,14 @@
       <c r="D36">
         <v>10</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1824,11 +2540,14 @@
       <c r="D37">
         <v>12</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -1841,11 +2560,14 @@
       <c r="D38">
         <v>14</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -1858,11 +2580,14 @@
       <c r="D39">
         <v>16</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1875,11 +2600,14 @@
       <c r="D40">
         <v>8</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -1892,11 +2620,14 @@
       <c r="D41">
         <v>10</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -1909,11 +2640,14 @@
       <c r="D42">
         <v>12</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1926,11 +2660,14 @@
       <c r="D43">
         <v>14</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -1943,11 +2680,14 @@
       <c r="D44">
         <v>16</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -1960,11 +2700,14 @@
       <c r="D45">
         <v>6</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -1977,11 +2720,14 @@
       <c r="D46">
         <v>8</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -1994,11 +2740,14 @@
       <c r="D47">
         <v>10</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -2011,11 +2760,14 @@
       <c r="D48">
         <v>12</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -2028,11 +2780,14 @@
       <c r="D49">
         <v>14</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -2045,11 +2800,14 @@
       <c r="D50">
         <v>8</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>24</v>
       </c>
@@ -2062,11 +2820,14 @@
       <c r="D51">
         <v>10</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>24</v>
       </c>
@@ -2079,11 +2840,14 @@
       <c r="D52">
         <v>12</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -2096,11 +2860,14 @@
       <c r="D53">
         <v>14</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>24</v>
       </c>
@@ -2113,11 +2880,14 @@
       <c r="D54">
         <v>8</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>24</v>
       </c>
@@ -2130,11 +2900,14 @@
       <c r="D55">
         <v>10</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>24</v>
       </c>
@@ -2147,11 +2920,14 @@
       <c r="D56">
         <v>12</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>24</v>
       </c>
@@ -2164,11 +2940,14 @@
       <c r="D57">
         <v>14</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -2181,11 +2960,14 @@
       <c r="D58">
         <v>6</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -2198,11 +2980,14 @@
       <c r="D59">
         <v>8</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -2215,11 +3000,14 @@
       <c r="D60">
         <v>10</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -2232,11 +3020,14 @@
       <c r="D61">
         <v>12</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -2249,11 +3040,14 @@
       <c r="D62">
         <v>14</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -2266,11 +3060,14 @@
       <c r="D63">
         <v>8</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -2283,11 +3080,14 @@
       <c r="D64">
         <v>10</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -2300,11 +3100,14 @@
       <c r="D65">
         <v>12</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -2317,11 +3120,14 @@
       <c r="D66">
         <v>14</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -2334,11 +3140,14 @@
       <c r="D67">
         <v>8</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -2351,11 +3160,14 @@
       <c r="D68">
         <v>10</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -2368,11 +3180,14 @@
       <c r="D69">
         <v>12</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -2385,11 +3200,14 @@
       <c r="D70">
         <v>14</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>24</v>
       </c>
@@ -2402,11 +3220,14 @@
       <c r="D71">
         <v>6</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>24</v>
       </c>
@@ -2419,11 +3240,14 @@
       <c r="D72">
         <v>8</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F72" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>24</v>
       </c>
@@ -2436,11 +3260,14 @@
       <c r="D73">
         <v>10</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F73" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>24</v>
       </c>
@@ -2453,11 +3280,14 @@
       <c r="D74">
         <v>12</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F74" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>24</v>
       </c>
@@ -2470,11 +3300,14 @@
       <c r="D75">
         <v>14</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F75" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>24</v>
       </c>
@@ -2487,11 +3320,14 @@
       <c r="D76">
         <v>8</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>24</v>
       </c>
@@ -2504,11 +3340,14 @@
       <c r="D77">
         <v>10</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>24</v>
       </c>
@@ -2521,11 +3360,14 @@
       <c r="D78">
         <v>12</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F78" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>24</v>
       </c>
@@ -2538,11 +3380,14 @@
       <c r="D79">
         <v>14</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>24</v>
       </c>
@@ -2555,11 +3400,14 @@
       <c r="D80">
         <v>8</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>24</v>
       </c>
@@ -2572,11 +3420,14 @@
       <c r="D81">
         <v>10</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>24</v>
       </c>
@@ -2589,11 +3440,14 @@
       <c r="D82">
         <v>12</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>24</v>
       </c>
@@ -2606,11 +3460,14 @@
       <c r="D83">
         <v>14</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F83" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>92</v>
       </c>
@@ -2623,11 +3480,14 @@
       <c r="D84">
         <v>6</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>92</v>
       </c>
@@ -2640,11 +3500,14 @@
       <c r="D85">
         <v>8</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F85" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -2657,11 +3520,14 @@
       <c r="D86">
         <v>10</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F86" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>92</v>
       </c>
@@ -2674,11 +3540,14 @@
       <c r="D87">
         <v>12</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F87" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>92</v>
       </c>
@@ -2691,11 +3560,14 @@
       <c r="D88">
         <v>8</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F88" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>92</v>
       </c>
@@ -2708,11 +3580,14 @@
       <c r="D89">
         <v>10</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F89" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>92</v>
       </c>
@@ -2725,11 +3600,14 @@
       <c r="D90">
         <v>12</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F90" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -2742,11 +3620,14 @@
       <c r="D91">
         <v>8</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F91" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -2759,11 +3640,14 @@
       <c r="D92">
         <v>10</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F92" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -2776,11 +3660,14 @@
       <c r="D93">
         <v>12</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F93" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>103</v>
       </c>
@@ -2793,11 +3680,14 @@
       <c r="D94">
         <v>6</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F94" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>103</v>
       </c>
@@ -2810,11 +3700,14 @@
       <c r="D95">
         <v>8</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F95" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>103</v>
       </c>
@@ -2827,11 +3720,14 @@
       <c r="D96">
         <v>10</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F96" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -2844,11 +3740,14 @@
       <c r="D97">
         <v>12</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F97" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>103</v>
       </c>
@@ -2861,11 +3760,14 @@
       <c r="D98">
         <v>8</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F98" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>103</v>
       </c>
@@ -2878,11 +3780,14 @@
       <c r="D99">
         <v>10</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F99" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>103</v>
       </c>
@@ -2895,11 +3800,14 @@
       <c r="D100">
         <v>12</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F100" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>103</v>
       </c>
@@ -2912,11 +3820,14 @@
       <c r="D101">
         <v>8</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F101" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -2929,11 +3840,14 @@
       <c r="D102">
         <v>10</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F102" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -2946,11 +3860,14 @@
       <c r="D103">
         <v>12</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F103" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>114</v>
       </c>
@@ -2963,11 +3880,11 @@
       <c r="D104">
         <v>10</v>
       </c>
-      <c r="E104">
-        <v>21.001000000000001</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E104" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>114</v>
       </c>
@@ -2980,11 +3897,11 @@
       <c r="D105">
         <v>12</v>
       </c>
-      <c r="E105">
-        <v>21.001200000000001</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E105" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>114</v>
       </c>
@@ -2997,11 +3914,11 @@
       <c r="D106">
         <v>14</v>
       </c>
-      <c r="E106">
-        <v>21.0014</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E106" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>115</v>
       </c>
@@ -3014,11 +3931,11 @@
       <c r="D107">
         <v>8</v>
       </c>
-      <c r="E107">
-        <v>21.2608</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E107" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>115</v>
       </c>
@@ -3031,11 +3948,11 @@
       <c r="D108">
         <v>10</v>
       </c>
-      <c r="E108">
-        <v>21.260999999999999</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E108" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>115</v>
       </c>
@@ -3048,11 +3965,11 @@
       <c r="D109">
         <v>12</v>
       </c>
-      <c r="E109">
-        <v>21.261199999999999</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E109" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>115</v>
       </c>
@@ -3065,11 +3982,11 @@
       <c r="D110">
         <v>14</v>
       </c>
-      <c r="E110">
-        <v>21.261399999999998</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E110" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>115</v>
       </c>
@@ -3082,11 +3999,11 @@
       <c r="D111">
         <v>8</v>
       </c>
-      <c r="E111">
-        <v>21.250800000000002</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E111" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>115</v>
       </c>
@@ -3099,8 +4016,8 @@
       <c r="D112">
         <v>10</v>
       </c>
-      <c r="E112">
-        <v>21.251000000000001</v>
+      <c r="E112" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -3116,8 +4033,8 @@
       <c r="D113">
         <v>12</v>
       </c>
-      <c r="E113">
-        <v>21.251200000000001</v>
+      <c r="E113" s="1" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -3133,8 +4050,8 @@
       <c r="D114">
         <v>14</v>
       </c>
-      <c r="E114">
-        <v>21.2514</v>
+      <c r="E114" s="1" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -3150,8 +4067,8 @@
       <c r="D115">
         <v>8</v>
       </c>
-      <c r="E115">
-        <v>21.230799999999999</v>
+      <c r="E115" s="1" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -3167,8 +4084,8 @@
       <c r="D116">
         <v>10</v>
       </c>
-      <c r="E116">
-        <v>21.231000000000002</v>
+      <c r="E116" s="1" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
@@ -3184,8 +4101,8 @@
       <c r="D117">
         <v>12</v>
       </c>
-      <c r="E117">
-        <v>21.231200000000001</v>
+      <c r="E117" s="1" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -3201,8 +4118,8 @@
       <c r="D118">
         <v>14</v>
       </c>
-      <c r="E118">
-        <v>21.231400000000001</v>
+      <c r="E118" s="1" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -3218,8 +4135,8 @@
       <c r="D119">
         <v>8</v>
       </c>
-      <c r="E119">
-        <v>21.340800000000002</v>
+      <c r="E119" s="1" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -3235,8 +4152,8 @@
       <c r="D120">
         <v>10</v>
       </c>
-      <c r="E120">
-        <v>21.341000000000001</v>
+      <c r="E120" s="1" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -3252,8 +4169,8 @@
       <c r="D121">
         <v>12</v>
       </c>
-      <c r="E121">
-        <v>21.341200000000001</v>
+      <c r="E121" s="1" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -3269,8 +4186,8 @@
       <c r="D122">
         <v>14</v>
       </c>
-      <c r="E122">
-        <v>21.3414</v>
+      <c r="E122" s="1" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -3286,8 +4203,8 @@
       <c r="D123">
         <v>16</v>
       </c>
-      <c r="E123">
-        <v>21.3416</v>
+      <c r="E123" s="1" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -3303,8 +4220,8 @@
       <c r="D124">
         <v>8</v>
       </c>
-      <c r="E124">
-        <v>21.3508</v>
+      <c r="E124" s="1" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
@@ -3320,8 +4237,8 @@
       <c r="D125">
         <v>10</v>
       </c>
-      <c r="E125">
-        <v>21.350999999999999</v>
+      <c r="E125" s="1" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
@@ -3337,8 +4254,8 @@
       <c r="D126">
         <v>12</v>
       </c>
-      <c r="E126">
-        <v>21.351199999999999</v>
+      <c r="E126" s="1" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -3354,8 +4271,8 @@
       <c r="D127">
         <v>14</v>
       </c>
-      <c r="E127">
-        <v>21.351400000000002</v>
+      <c r="E127" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
@@ -3371,8 +4288,8 @@
       <c r="D128">
         <v>16</v>
       </c>
-      <c r="E128">
-        <v>21.351600000000001</v>
+      <c r="E128" s="1" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
@@ -3388,8 +4305,8 @@
       <c r="D129">
         <v>8</v>
       </c>
-      <c r="E129">
-        <v>21.3508</v>
+      <c r="E129" s="1" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
@@ -3405,8 +4322,8 @@
       <c r="D130">
         <v>10</v>
       </c>
-      <c r="E130">
-        <v>21.350999999999999</v>
+      <c r="E130" s="1" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
@@ -3422,8 +4339,8 @@
       <c r="D131">
         <v>12</v>
       </c>
-      <c r="E131">
-        <v>21.351199999999999</v>
+      <c r="E131" s="1" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
@@ -3439,8 +4356,8 @@
       <c r="D132">
         <v>14</v>
       </c>
-      <c r="E132">
-        <v>21.351400000000002</v>
+      <c r="E132" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -3456,8 +4373,8 @@
       <c r="D133">
         <v>16</v>
       </c>
-      <c r="E133">
-        <v>21.351600000000001</v>
+      <c r="E133" s="1" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -3473,8 +4390,8 @@
       <c r="D134">
         <v>8</v>
       </c>
-      <c r="E134">
-        <v>21.460799999999999</v>
+      <c r="E134" s="1" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
@@ -3490,8 +4407,8 @@
       <c r="D135">
         <v>10</v>
       </c>
-      <c r="E135">
-        <v>21.460999999999999</v>
+      <c r="E135" s="1" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
@@ -3507,8 +4424,8 @@
       <c r="D136">
         <v>12</v>
       </c>
-      <c r="E136">
-        <v>21.461200000000002</v>
+      <c r="E136" s="1" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
@@ -3524,8 +4441,8 @@
       <c r="D137">
         <v>14</v>
       </c>
-      <c r="E137">
-        <v>21.461400000000001</v>
+      <c r="E137" s="1" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
@@ -3541,8 +4458,8 @@
       <c r="D138">
         <v>8</v>
       </c>
-      <c r="E138">
-        <v>21.450800000000001</v>
+      <c r="E138" s="1" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
@@ -3558,8 +4475,8 @@
       <c r="D139">
         <v>10</v>
       </c>
-      <c r="E139">
-        <v>21.451000000000001</v>
+      <c r="E139" s="1" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
@@ -3575,8 +4492,8 @@
       <c r="D140">
         <v>12</v>
       </c>
-      <c r="E140">
-        <v>21.4512</v>
+      <c r="E140" s="1" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
@@ -3592,8 +4509,8 @@
       <c r="D141">
         <v>14</v>
       </c>
-      <c r="E141">
-        <v>21.4514</v>
+      <c r="E141" s="1" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
@@ -3609,8 +4526,8 @@
       <c r="D142">
         <v>8</v>
       </c>
-      <c r="E142">
-        <v>21.430800000000001</v>
+      <c r="E142" s="1" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
@@ -3626,8 +4543,8 @@
       <c r="D143">
         <v>10</v>
       </c>
-      <c r="E143">
-        <v>21.431000000000001</v>
+      <c r="E143" s="1" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
@@ -3643,8 +4560,8 @@
       <c r="D144">
         <v>12</v>
       </c>
-      <c r="E144">
-        <v>21.4312</v>
+      <c r="E144" s="1" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
@@ -3660,8 +4577,8 @@
       <c r="D145">
         <v>14</v>
       </c>
-      <c r="E145">
-        <v>21.4314</v>
+      <c r="E145" s="1" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
@@ -3677,8 +4594,8 @@
       <c r="D146">
         <v>8</v>
       </c>
-      <c r="E146">
-        <v>21.540800000000001</v>
+      <c r="E146" s="1" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
@@ -3694,8 +4611,8 @@
       <c r="D147">
         <v>10</v>
       </c>
-      <c r="E147">
-        <v>21.541</v>
+      <c r="E147" s="1" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
@@ -3711,8 +4628,8 @@
       <c r="D148">
         <v>12</v>
       </c>
-      <c r="E148">
-        <v>21.5412</v>
+      <c r="E148" s="1" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
@@ -3728,8 +4645,8 @@
       <c r="D149">
         <v>14</v>
       </c>
-      <c r="E149">
-        <v>21.541399999999999</v>
+      <c r="E149" s="1" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
@@ -3745,8 +4662,8 @@
       <c r="D150">
         <v>16</v>
       </c>
-      <c r="E150">
-        <v>21.541599999999999</v>
+      <c r="E150" s="1" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
@@ -3762,8 +4679,8 @@
       <c r="D151">
         <v>8</v>
       </c>
-      <c r="E151">
-        <v>21.550799999999999</v>
+      <c r="E151" s="1" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
@@ -3779,8 +4696,8 @@
       <c r="D152">
         <v>10</v>
       </c>
-      <c r="E152">
-        <v>21.550999999999998</v>
+      <c r="E152" s="1" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
@@ -3796,8 +4713,8 @@
       <c r="D153">
         <v>12</v>
       </c>
-      <c r="E153">
-        <v>21.551200000000001</v>
+      <c r="E153" s="1" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
@@ -3813,8 +4730,8 @@
       <c r="D154">
         <v>14</v>
       </c>
-      <c r="E154">
-        <v>21.551400000000001</v>
+      <c r="E154" s="1" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
@@ -3830,8 +4747,8 @@
       <c r="D155">
         <v>16</v>
       </c>
-      <c r="E155">
-        <v>21.551600000000001</v>
+      <c r="E155" s="1" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
@@ -3847,8 +4764,8 @@
       <c r="D156">
         <v>8</v>
       </c>
-      <c r="E156">
-        <v>21.530799999999999</v>
+      <c r="E156" s="1" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
@@ -3864,8 +4781,8 @@
       <c r="D157">
         <v>10</v>
       </c>
-      <c r="E157">
-        <v>21.530999999999999</v>
+      <c r="E157" s="1" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
@@ -3881,8 +4798,8 @@
       <c r="D158">
         <v>12</v>
       </c>
-      <c r="E158">
-        <v>21.531199999999998</v>
+      <c r="E158" s="1" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
@@ -3898,8 +4815,8 @@
       <c r="D159">
         <v>14</v>
       </c>
-      <c r="E159">
-        <v>21.051400000000001</v>
+      <c r="E159" s="1" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
@@ -3915,8 +4832,8 @@
       <c r="D160">
         <v>16</v>
       </c>
-      <c r="E160">
-        <v>21.051600000000001</v>
+      <c r="E160" s="1" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
@@ -3932,8 +4849,8 @@
       <c r="D161">
         <v>8</v>
       </c>
-      <c r="E161">
-        <v>21.660799999999998</v>
+      <c r="E161" s="1" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
@@ -3949,8 +4866,8 @@
       <c r="D162">
         <v>10</v>
       </c>
-      <c r="E162">
-        <v>21.661000000000001</v>
+      <c r="E162" s="1" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
@@ -3966,8 +4883,8 @@
       <c r="D163">
         <v>12</v>
       </c>
-      <c r="E163">
-        <v>21.661200000000001</v>
+      <c r="E163" s="1" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
@@ -3983,8 +4900,8 @@
       <c r="D164">
         <v>14</v>
       </c>
-      <c r="E164">
-        <v>21.6614</v>
+      <c r="E164" s="1" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
@@ -4000,8 +4917,8 @@
       <c r="D165">
         <v>8</v>
       </c>
-      <c r="E165">
-        <v>21.6508</v>
+      <c r="E165" s="1" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
@@ -4017,8 +4934,8 @@
       <c r="D166">
         <v>10</v>
       </c>
-      <c r="E166">
-        <v>21.651</v>
+      <c r="E166" s="1" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
@@ -4034,8 +4951,8 @@
       <c r="D167">
         <v>12</v>
       </c>
-      <c r="E167">
-        <v>21.651199999999999</v>
+      <c r="E167" s="1" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
@@ -4051,8 +4968,8 @@
       <c r="D168">
         <v>14</v>
       </c>
-      <c r="E168">
-        <v>21.651399999999999</v>
+      <c r="E168" s="1" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
@@ -4068,8 +4985,8 @@
       <c r="D169">
         <v>8</v>
       </c>
-      <c r="E169">
-        <v>21.630800000000001</v>
+      <c r="E169" s="1" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
@@ -4085,8 +5002,8 @@
       <c r="D170">
         <v>10</v>
       </c>
-      <c r="E170">
-        <v>21.631</v>
+      <c r="E170" s="1" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
@@ -4102,8 +5019,8 @@
       <c r="D171">
         <v>12</v>
       </c>
-      <c r="E171">
-        <v>21.6312</v>
+      <c r="E171" s="1" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
@@ -4119,8 +5036,8 @@
       <c r="D172">
         <v>14</v>
       </c>
-      <c r="E172">
-        <v>21.631399999999999</v>
+      <c r="E172" s="1" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
@@ -4136,8 +5053,8 @@
       <c r="D173">
         <v>8</v>
       </c>
-      <c r="E173">
-        <v>21.7408</v>
+      <c r="E173" s="1" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
@@ -4153,8 +5070,8 @@
       <c r="D174">
         <v>10</v>
       </c>
-      <c r="E174">
-        <v>21.741</v>
+      <c r="E174" s="1" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
@@ -4170,8 +5087,8 @@
       <c r="D175">
         <v>12</v>
       </c>
-      <c r="E175">
-        <v>21.741199999999999</v>
+      <c r="E175" s="1" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
@@ -4187,11 +5104,11 @@
       <c r="D176">
         <v>14</v>
       </c>
-      <c r="E176">
-        <v>21.741399999999999</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E176" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>118</v>
       </c>
@@ -4204,11 +5121,11 @@
       <c r="D177">
         <v>16</v>
       </c>
-      <c r="E177">
-        <v>21.741599999999998</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E177" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>118</v>
       </c>
@@ -4221,11 +5138,11 @@
       <c r="D178">
         <v>8</v>
       </c>
-      <c r="E178">
-        <v>21.750800000000002</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E178" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>118</v>
       </c>
@@ -4238,11 +5155,11 @@
       <c r="D179">
         <v>10</v>
       </c>
-      <c r="E179">
-        <v>21.751000000000001</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E179" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>118</v>
       </c>
@@ -4255,11 +5172,11 @@
       <c r="D180">
         <v>12</v>
       </c>
-      <c r="E180">
-        <v>21.751200000000001</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E180" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>118</v>
       </c>
@@ -4272,11 +5189,11 @@
       <c r="D181">
         <v>14</v>
       </c>
-      <c r="E181">
-        <v>21.7514</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E181" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>118</v>
       </c>
@@ -4289,11 +5206,11 @@
       <c r="D182">
         <v>16</v>
       </c>
-      <c r="E182">
-        <v>21.7516</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E182" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>118</v>
       </c>
@@ -4306,11 +5223,11 @@
       <c r="D183">
         <v>8</v>
       </c>
-      <c r="E183">
-        <v>21.730799999999999</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E183" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>118</v>
       </c>
@@ -4323,11 +5240,11 @@
       <c r="D184">
         <v>10</v>
       </c>
-      <c r="E184">
-        <v>21.731000000000002</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E184" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>118</v>
       </c>
@@ -4340,11 +5257,11 @@
       <c r="D185">
         <v>12</v>
       </c>
-      <c r="E185">
-        <v>21.731200000000001</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E185" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>118</v>
       </c>
@@ -4357,11 +5274,11 @@
       <c r="D186">
         <v>14</v>
       </c>
-      <c r="E186">
-        <v>21.731400000000001</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E186" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>118</v>
       </c>
@@ -4374,11 +5291,11 @@
       <c r="D187">
         <v>16</v>
       </c>
-      <c r="E187">
-        <v>21.7316</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E187" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>119</v>
       </c>
@@ -4391,11 +5308,14 @@
       <c r="D188">
         <v>8</v>
       </c>
-      <c r="E188" t="s">
+      <c r="E188" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F188" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>119</v>
       </c>
@@ -4408,11 +5328,14 @@
       <c r="D189">
         <v>10</v>
       </c>
-      <c r="E189" t="s">
+      <c r="E189" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F189" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>119</v>
       </c>
@@ -4425,11 +5348,14 @@
       <c r="D190">
         <v>12</v>
       </c>
-      <c r="E190" t="s">
+      <c r="E190" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F190" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>119</v>
       </c>
@@ -4442,11 +5368,14 @@
       <c r="D191">
         <v>14</v>
       </c>
-      <c r="E191" t="s">
+      <c r="E191" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F191" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>119</v>
       </c>
@@ -4459,11 +5388,14 @@
       <c r="D192">
         <v>16</v>
       </c>
-      <c r="E192" t="s">
+      <c r="E192" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F192" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>119</v>
       </c>
@@ -4476,11 +5408,14 @@
       <c r="D193">
         <v>18</v>
       </c>
-      <c r="E193" t="s">
+      <c r="E193" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F193" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>119</v>
       </c>
@@ -4493,11 +5428,14 @@
       <c r="D194">
         <v>8</v>
       </c>
-      <c r="E194" t="s">
+      <c r="E194" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F194" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>119</v>
       </c>
@@ -4510,11 +5448,14 @@
       <c r="D195">
         <v>10</v>
       </c>
-      <c r="E195" t="s">
+      <c r="E195" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F195" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>119</v>
       </c>
@@ -4527,11 +5468,14 @@
       <c r="D196">
         <v>12</v>
       </c>
-      <c r="E196" t="s">
+      <c r="E196" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F196" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>119</v>
       </c>
@@ -4544,11 +5488,14 @@
       <c r="D197">
         <v>14</v>
       </c>
-      <c r="E197" t="s">
+      <c r="E197" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F197" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>119</v>
       </c>
@@ -4561,11 +5508,14 @@
       <c r="D198">
         <v>16</v>
       </c>
-      <c r="E198" t="s">
+      <c r="E198" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F198" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>119</v>
       </c>
@@ -4578,11 +5528,14 @@
       <c r="D199">
         <v>18</v>
       </c>
-      <c r="E199" t="s">
+      <c r="E199" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F199" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>132</v>
       </c>
@@ -4595,11 +5548,14 @@
       <c r="D200">
         <v>8</v>
       </c>
-      <c r="E200" t="s">
+      <c r="E200" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F200" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>132</v>
       </c>
@@ -4612,11 +5568,14 @@
       <c r="D201">
         <v>10</v>
       </c>
-      <c r="E201" t="s">
+      <c r="E201" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F201" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>132</v>
       </c>
@@ -4629,11 +5588,14 @@
       <c r="D202">
         <v>12</v>
       </c>
-      <c r="E202" t="s">
+      <c r="E202" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F202" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>132</v>
       </c>
@@ -4646,11 +5608,14 @@
       <c r="D203">
         <v>14</v>
       </c>
-      <c r="E203" t="s">
+      <c r="E203" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F203" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>132</v>
       </c>
@@ -4663,11 +5628,14 @@
       <c r="D204">
         <v>16</v>
       </c>
-      <c r="E204" t="s">
+      <c r="E204" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F204" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>132</v>
       </c>
@@ -4680,11 +5648,14 @@
       <c r="D205">
         <v>18</v>
       </c>
-      <c r="E205" t="s">
+      <c r="E205" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F205" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>132</v>
       </c>
@@ -4697,11 +5668,14 @@
       <c r="D206">
         <v>8</v>
       </c>
-      <c r="E206" t="s">
+      <c r="E206" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F206" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>132</v>
       </c>
@@ -4714,11 +5688,14 @@
       <c r="D207">
         <v>10</v>
       </c>
-      <c r="E207" t="s">
+      <c r="E207" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F207" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>132</v>
       </c>
@@ -4731,11 +5708,14 @@
       <c r="D208">
         <v>12</v>
       </c>
-      <c r="E208" t="s">
+      <c r="E208" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F208" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>132</v>
       </c>
@@ -4748,11 +5728,14 @@
       <c r="D209">
         <v>14</v>
       </c>
-      <c r="E209" t="s">
+      <c r="E209" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F209" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>132</v>
       </c>
@@ -4765,11 +5748,14 @@
       <c r="D210">
         <v>16</v>
       </c>
-      <c r="E210" t="s">
+      <c r="E210" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F210" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>132</v>
       </c>
@@ -4782,11 +5768,14 @@
       <c r="D211">
         <v>18</v>
       </c>
-      <c r="E211" t="s">
+      <c r="E211" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F211" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>145</v>
       </c>
@@ -4799,11 +5788,14 @@
       <c r="D212">
         <v>8</v>
       </c>
-      <c r="E212" t="s">
+      <c r="E212" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F212" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>145</v>
       </c>
@@ -4816,11 +5808,14 @@
       <c r="D213">
         <v>10</v>
       </c>
-      <c r="E213" t="s">
+      <c r="E213" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F213" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>145</v>
       </c>
@@ -4833,11 +5828,14 @@
       <c r="D214">
         <v>12</v>
       </c>
-      <c r="E214" t="s">
+      <c r="E214" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F214" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>145</v>
       </c>
@@ -4850,11 +5848,14 @@
       <c r="D215">
         <v>14</v>
       </c>
-      <c r="E215" t="s">
+      <c r="E215" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F215" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>145</v>
       </c>
@@ -4867,11 +5868,14 @@
       <c r="D216">
         <v>16</v>
       </c>
-      <c r="E216" t="s">
+      <c r="E216" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F216" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>145</v>
       </c>
@@ -4884,11 +5888,14 @@
       <c r="D217">
         <v>18</v>
       </c>
-      <c r="E217" t="s">
+      <c r="E217" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F217" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>145</v>
       </c>
@@ -4901,11 +5908,14 @@
       <c r="D218">
         <v>8</v>
       </c>
-      <c r="E218" t="s">
+      <c r="E218" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F218" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>145</v>
       </c>
@@ -4918,11 +5928,14 @@
       <c r="D219">
         <v>10</v>
       </c>
-      <c r="E219" t="s">
+      <c r="E219" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F219" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>145</v>
       </c>
@@ -4935,11 +5948,14 @@
       <c r="D220">
         <v>12</v>
       </c>
-      <c r="E220" t="s">
+      <c r="E220" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F220" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>145</v>
       </c>
@@ -4952,11 +5968,14 @@
       <c r="D221">
         <v>14</v>
       </c>
-      <c r="E221" t="s">
+      <c r="E221" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F221" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>145</v>
       </c>
@@ -4969,11 +5988,14 @@
       <c r="D222">
         <v>16</v>
       </c>
-      <c r="E222" t="s">
+      <c r="E222" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F222" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>145</v>
       </c>
@@ -4986,11 +6008,14 @@
       <c r="D223">
         <v>18</v>
       </c>
-      <c r="E223" t="s">
+      <c r="E223" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F223" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>158</v>
       </c>
@@ -5003,11 +6028,14 @@
       <c r="D224">
         <v>8</v>
       </c>
-      <c r="E224" t="s">
+      <c r="E224" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F224" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>158</v>
       </c>
@@ -5020,11 +6048,14 @@
       <c r="D225">
         <v>10</v>
       </c>
-      <c r="E225" t="s">
+      <c r="E225" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F225" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>158</v>
       </c>
@@ -5037,11 +6068,14 @@
       <c r="D226">
         <v>12</v>
       </c>
-      <c r="E226" t="s">
+      <c r="E226" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F226" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>158</v>
       </c>
@@ -5054,11 +6088,14 @@
       <c r="D227">
         <v>14</v>
       </c>
-      <c r="E227" t="s">
+      <c r="E227" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F227" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>158</v>
       </c>
@@ -5071,11 +6108,14 @@
       <c r="D228">
         <v>16</v>
       </c>
-      <c r="E228" t="s">
+      <c r="E228" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F228" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>158</v>
       </c>
@@ -5088,11 +6128,14 @@
       <c r="D229">
         <v>18</v>
       </c>
-      <c r="E229" t="s">
+      <c r="E229" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F229" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>158</v>
       </c>
@@ -5105,11 +6148,14 @@
       <c r="D230">
         <v>8</v>
       </c>
-      <c r="E230" t="s">
+      <c r="E230" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F230" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>158</v>
       </c>
@@ -5122,11 +6168,14 @@
       <c r="D231">
         <v>10</v>
       </c>
-      <c r="E231" t="s">
+      <c r="E231" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F231" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>158</v>
       </c>
@@ -5139,11 +6188,14 @@
       <c r="D232">
         <v>12</v>
       </c>
-      <c r="E232" t="s">
+      <c r="E232" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F232" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>158</v>
       </c>
@@ -5156,11 +6208,14 @@
       <c r="D233">
         <v>14</v>
       </c>
-      <c r="E233" t="s">
+      <c r="E233" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F233" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>158</v>
       </c>
@@ -5173,11 +6228,14 @@
       <c r="D234">
         <v>16</v>
       </c>
-      <c r="E234" t="s">
+      <c r="E234" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F234" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>158</v>
       </c>
@@ -5190,11 +6248,14 @@
       <c r="D235">
         <v>18</v>
       </c>
-      <c r="E235" t="s">
+      <c r="E235" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F235" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>119</v>
       </c>
@@ -5207,11 +6268,14 @@
       <c r="D236">
         <v>8</v>
       </c>
-      <c r="E236" t="s">
+      <c r="E236" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F236" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>119</v>
       </c>
@@ -5224,11 +6288,14 @@
       <c r="D237">
         <v>10</v>
       </c>
-      <c r="E237" t="s">
+      <c r="E237" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F237" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>119</v>
       </c>
@@ -5241,11 +6308,14 @@
       <c r="D238">
         <v>12</v>
       </c>
-      <c r="E238" t="s">
+      <c r="E238" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F238" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>119</v>
       </c>
@@ -5258,11 +6328,14 @@
       <c r="D239">
         <v>14</v>
       </c>
-      <c r="E239" t="s">
+      <c r="E239" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F239" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>119</v>
       </c>
@@ -5275,11 +6348,14 @@
       <c r="D240">
         <v>16</v>
       </c>
-      <c r="E240" t="s">
+      <c r="E240" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F240" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>119</v>
       </c>
@@ -5292,11 +6368,14 @@
       <c r="D241">
         <v>18</v>
       </c>
-      <c r="E241" t="s">
+      <c r="E241" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F241" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>119</v>
       </c>
@@ -5309,11 +6388,14 @@
       <c r="D242">
         <v>8</v>
       </c>
-      <c r="E242" t="s">
+      <c r="E242" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F242" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>119</v>
       </c>
@@ -5326,11 +6408,14 @@
       <c r="D243">
         <v>10</v>
       </c>
-      <c r="E243" t="s">
+      <c r="E243" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F243" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>119</v>
       </c>
@@ -5343,11 +6428,14 @@
       <c r="D244">
         <v>12</v>
       </c>
-      <c r="E244" t="s">
+      <c r="E244" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F244" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>119</v>
       </c>
@@ -5360,11 +6448,14 @@
       <c r="D245">
         <v>14</v>
       </c>
-      <c r="E245" t="s">
+      <c r="E245" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F245" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>119</v>
       </c>
@@ -5377,11 +6468,14 @@
       <c r="D246">
         <v>16</v>
       </c>
-      <c r="E246" t="s">
+      <c r="E246" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F246" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>119</v>
       </c>
@@ -5394,11 +6488,14 @@
       <c r="D247">
         <v>18</v>
       </c>
-      <c r="E247" t="s">
+      <c r="E247" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F247" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>132</v>
       </c>
@@ -5411,11 +6508,14 @@
       <c r="D248">
         <v>8</v>
       </c>
-      <c r="E248" t="s">
+      <c r="E248" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F248" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>132</v>
       </c>
@@ -5428,11 +6528,14 @@
       <c r="D249">
         <v>10</v>
       </c>
-      <c r="E249" t="s">
+      <c r="E249" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F249" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>132</v>
       </c>
@@ -5445,11 +6548,14 @@
       <c r="D250">
         <v>12</v>
       </c>
-      <c r="E250" t="s">
+      <c r="E250" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F250" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>132</v>
       </c>
@@ -5462,11 +6568,14 @@
       <c r="D251">
         <v>14</v>
       </c>
-      <c r="E251" t="s">
+      <c r="E251" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F251" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>132</v>
       </c>
@@ -5479,11 +6588,14 @@
       <c r="D252">
         <v>16</v>
       </c>
-      <c r="E252" t="s">
+      <c r="E252" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F252" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>132</v>
       </c>
@@ -5496,11 +6608,14 @@
       <c r="D253">
         <v>18</v>
       </c>
-      <c r="E253" t="s">
+      <c r="E253" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F253" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>132</v>
       </c>
@@ -5513,11 +6628,14 @@
       <c r="D254">
         <v>8</v>
       </c>
-      <c r="E254" t="s">
+      <c r="E254" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F254" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>132</v>
       </c>
@@ -5530,11 +6648,14 @@
       <c r="D255">
         <v>10</v>
       </c>
-      <c r="E255" t="s">
+      <c r="E255" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F255" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>132</v>
       </c>
@@ -5547,11 +6668,14 @@
       <c r="D256">
         <v>12</v>
       </c>
-      <c r="E256" t="s">
+      <c r="E256" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F256" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>132</v>
       </c>
@@ -5564,11 +6688,14 @@
       <c r="D257">
         <v>14</v>
       </c>
-      <c r="E257" t="s">
+      <c r="E257" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F257" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>132</v>
       </c>
@@ -5581,11 +6708,14 @@
       <c r="D258">
         <v>16</v>
       </c>
-      <c r="E258" t="s">
+      <c r="E258" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F258" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>132</v>
       </c>
@@ -5598,11 +6728,14 @@
       <c r="D259">
         <v>18</v>
       </c>
-      <c r="E259" t="s">
+      <c r="E259" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F259" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>145</v>
       </c>
@@ -5615,11 +6748,14 @@
       <c r="D260">
         <v>8</v>
       </c>
-      <c r="E260" t="s">
+      <c r="E260" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F260" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>145</v>
       </c>
@@ -5632,11 +6768,14 @@
       <c r="D261">
         <v>10</v>
       </c>
-      <c r="E261" t="s">
+      <c r="E261" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F261" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>145</v>
       </c>
@@ -5649,11 +6788,14 @@
       <c r="D262">
         <v>12</v>
       </c>
-      <c r="E262" t="s">
+      <c r="E262" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F262" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>145</v>
       </c>
@@ -5666,11 +6808,14 @@
       <c r="D263">
         <v>14</v>
       </c>
-      <c r="E263" t="s">
+      <c r="E263" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F263" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>145</v>
       </c>
@@ -5683,11 +6828,14 @@
       <c r="D264">
         <v>16</v>
       </c>
-      <c r="E264" t="s">
+      <c r="E264" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F264" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>145</v>
       </c>
@@ -5700,11 +6848,14 @@
       <c r="D265">
         <v>18</v>
       </c>
-      <c r="E265" t="s">
+      <c r="E265" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F265" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>145</v>
       </c>
@@ -5717,11 +6868,14 @@
       <c r="D266">
         <v>8</v>
       </c>
-      <c r="E266" t="s">
+      <c r="E266" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F266" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>145</v>
       </c>
@@ -5734,11 +6888,14 @@
       <c r="D267">
         <v>10</v>
       </c>
-      <c r="E267" t="s">
+      <c r="E267" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F267" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>145</v>
       </c>
@@ -5751,11 +6908,14 @@
       <c r="D268">
         <v>12</v>
       </c>
-      <c r="E268" t="s">
+      <c r="E268" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F268" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>145</v>
       </c>
@@ -5768,11 +6928,14 @@
       <c r="D269">
         <v>14</v>
       </c>
-      <c r="E269" t="s">
+      <c r="E269" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F269" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>145</v>
       </c>
@@ -5785,11 +6948,14 @@
       <c r="D270">
         <v>16</v>
       </c>
-      <c r="E270" t="s">
+      <c r="E270" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F270" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>145</v>
       </c>
@@ -5802,11 +6968,14 @@
       <c r="D271">
         <v>18</v>
       </c>
-      <c r="E271" t="s">
+      <c r="E271" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F271" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>158</v>
       </c>
@@ -5819,11 +6988,14 @@
       <c r="D272">
         <v>8</v>
       </c>
-      <c r="E272" t="s">
+      <c r="E272" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F272" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>158</v>
       </c>
@@ -5836,11 +7008,14 @@
       <c r="D273">
         <v>10</v>
       </c>
-      <c r="E273" t="s">
+      <c r="E273" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F273" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>158</v>
       </c>
@@ -5853,11 +7028,14 @@
       <c r="D274">
         <v>12</v>
       </c>
-      <c r="E274" t="s">
+      <c r="E274" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F274" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>158</v>
       </c>
@@ -5870,11 +7048,14 @@
       <c r="D275">
         <v>14</v>
       </c>
-      <c r="E275" t="s">
+      <c r="E275" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F275" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>158</v>
       </c>
@@ -5887,11 +7068,14 @@
       <c r="D276">
         <v>16</v>
       </c>
-      <c r="E276" t="s">
+      <c r="E276" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F276" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>158</v>
       </c>
@@ -5904,11 +7088,14 @@
       <c r="D277">
         <v>18</v>
       </c>
-      <c r="E277" t="s">
+      <c r="E277" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F277" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>158</v>
       </c>
@@ -5921,11 +7108,14 @@
       <c r="D278">
         <v>8</v>
       </c>
-      <c r="E278" t="s">
+      <c r="E278" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F278" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>158</v>
       </c>
@@ -5938,11 +7128,14 @@
       <c r="D279">
         <v>10</v>
       </c>
-      <c r="E279" t="s">
+      <c r="E279" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F279" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>158</v>
       </c>
@@ -5955,11 +7148,14 @@
       <c r="D280">
         <v>12</v>
       </c>
-      <c r="E280" t="s">
+      <c r="E280" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F280" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>158</v>
       </c>
@@ -5972,11 +7168,14 @@
       <c r="D281">
         <v>14</v>
       </c>
-      <c r="E281" t="s">
+      <c r="E281" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F281" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>158</v>
       </c>
@@ -5989,11 +7188,14 @@
       <c r="D282">
         <v>16</v>
       </c>
-      <c r="E282" t="s">
+      <c r="E282" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F282" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>158</v>
       </c>
@@ -6006,11 +7208,14 @@
       <c r="D283">
         <v>18</v>
       </c>
-      <c r="E283" t="s">
+      <c r="E283" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F283" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>219</v>
       </c>
@@ -6023,11 +7228,14 @@
       <c r="D284">
         <v>6</v>
       </c>
-      <c r="E284" t="s">
+      <c r="E284" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F284" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>219</v>
       </c>
@@ -6040,11 +7248,14 @@
       <c r="D285">
         <v>8</v>
       </c>
-      <c r="E285" t="s">
+      <c r="E285" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F285" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>219</v>
       </c>
@@ -6057,11 +7268,14 @@
       <c r="D286">
         <v>10</v>
       </c>
-      <c r="E286" t="s">
+      <c r="E286" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F286" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>219</v>
       </c>
@@ -6074,11 +7288,14 @@
       <c r="D287">
         <v>12</v>
       </c>
-      <c r="E287" t="s">
+      <c r="E287" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F287" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>219</v>
       </c>
@@ -6091,11 +7308,14 @@
       <c r="D288">
         <v>6</v>
       </c>
-      <c r="E288" t="s">
+      <c r="E288" s="1" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F288" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>219</v>
       </c>
@@ -6108,11 +7328,14 @@
       <c r="D289">
         <v>8</v>
       </c>
-      <c r="E289" t="s">
+      <c r="E289" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F289" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>219</v>
       </c>
@@ -6125,11 +7348,14 @@
       <c r="D290">
         <v>10</v>
       </c>
-      <c r="E290" t="s">
+      <c r="E290" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F290" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>219</v>
       </c>
@@ -6142,11 +7368,14 @@
       <c r="D291">
         <v>12</v>
       </c>
-      <c r="E291" t="s">
+      <c r="E291" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F291" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>228</v>
       </c>
@@ -6159,11 +7388,14 @@
       <c r="D292">
         <v>6</v>
       </c>
-      <c r="E292" t="s">
+      <c r="E292" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F292" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>228</v>
       </c>
@@ -6176,11 +7408,14 @@
       <c r="D293">
         <v>8</v>
       </c>
-      <c r="E293" t="s">
+      <c r="E293" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F293" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>228</v>
       </c>
@@ -6193,11 +7428,14 @@
       <c r="D294">
         <v>10</v>
       </c>
-      <c r="E294" t="s">
+      <c r="E294" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F294" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>228</v>
       </c>
@@ -6210,11 +7448,14 @@
       <c r="D295">
         <v>12</v>
       </c>
-      <c r="E295" t="s">
+      <c r="E295" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F295" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>228</v>
       </c>
@@ -6227,11 +7468,14 @@
       <c r="D296">
         <v>6</v>
       </c>
-      <c r="E296" t="s">
+      <c r="E296" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F296" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>228</v>
       </c>
@@ -6244,11 +7488,14 @@
       <c r="D297">
         <v>8</v>
       </c>
-      <c r="E297" t="s">
+      <c r="E297" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F297" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>228</v>
       </c>
@@ -6261,11 +7508,14 @@
       <c r="D298">
         <v>10</v>
       </c>
-      <c r="E298" t="s">
+      <c r="E298" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F298" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>228</v>
       </c>
@@ -6278,11 +7528,14 @@
       <c r="D299">
         <v>12</v>
       </c>
-      <c r="E299" t="s">
+      <c r="E299" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F299" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>219</v>
       </c>
@@ -6295,11 +7548,14 @@
       <c r="D300">
         <v>6</v>
       </c>
-      <c r="E300" t="s">
+      <c r="E300" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F300" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>219</v>
       </c>
@@ -6312,11 +7568,14 @@
       <c r="D301">
         <v>8</v>
       </c>
-      <c r="E301" t="s">
+      <c r="E301" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F301" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>219</v>
       </c>
@@ -6329,11 +7588,14 @@
       <c r="D302">
         <v>10</v>
       </c>
-      <c r="E302" t="s">
+      <c r="E302" s="1" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F302" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>219</v>
       </c>
@@ -6346,11 +7608,14 @@
       <c r="D303">
         <v>12</v>
       </c>
-      <c r="E303" t="s">
+      <c r="E303" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F303" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>219</v>
       </c>
@@ -6363,11 +7628,14 @@
       <c r="D304">
         <v>6</v>
       </c>
-      <c r="E304" t="s">
+      <c r="E304" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F304" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>219</v>
       </c>
@@ -6380,11 +7648,14 @@
       <c r="D305">
         <v>8</v>
       </c>
-      <c r="E305" t="s">
+      <c r="E305" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F305" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>219</v>
       </c>
@@ -6397,11 +7668,14 @@
       <c r="D306">
         <v>10</v>
       </c>
-      <c r="E306" t="s">
+      <c r="E306" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F306" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>219</v>
       </c>
@@ -6414,11 +7688,14 @@
       <c r="D307">
         <v>12</v>
       </c>
-      <c r="E307" t="s">
+      <c r="E307" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F307" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>228</v>
       </c>
@@ -6431,11 +7708,14 @@
       <c r="D308">
         <v>6</v>
       </c>
-      <c r="E308" t="s">
+      <c r="E308" s="1" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F308" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>228</v>
       </c>
@@ -6448,11 +7728,14 @@
       <c r="D309">
         <v>8</v>
       </c>
-      <c r="E309" t="s">
+      <c r="E309" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F309" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>228</v>
       </c>
@@ -6465,11 +7748,14 @@
       <c r="D310">
         <v>10</v>
       </c>
-      <c r="E310" t="s">
+      <c r="E310" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F310" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>228</v>
       </c>
@@ -6482,11 +7768,14 @@
       <c r="D311">
         <v>12</v>
       </c>
-      <c r="E311" t="s">
+      <c r="E311" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F311" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>228</v>
       </c>
@@ -6499,11 +7788,14 @@
       <c r="D312">
         <v>6</v>
       </c>
-      <c r="E312" t="s">
+      <c r="E312" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F312" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>228</v>
       </c>
@@ -6516,11 +7808,14 @@
       <c r="D313">
         <v>8</v>
       </c>
-      <c r="E313" t="s">
+      <c r="E313" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F313" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>228</v>
       </c>
@@ -6533,11 +7828,14 @@
       <c r="D314">
         <v>10</v>
       </c>
-      <c r="E314" t="s">
+      <c r="E314" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F314" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>228</v>
       </c>
@@ -6550,11 +7848,14 @@
       <c r="D315">
         <v>12</v>
       </c>
-      <c r="E315" t="s">
+      <c r="E315" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F315" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>253</v>
       </c>
@@ -6567,11 +7868,11 @@
       <c r="D316">
         <v>8</v>
       </c>
-      <c r="E316">
-        <v>61.3508</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E316" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>253</v>
       </c>
@@ -6584,11 +7885,11 @@
       <c r="D317">
         <v>10</v>
       </c>
-      <c r="E317">
-        <v>61.350999999999999</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E317" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>253</v>
       </c>
@@ -6601,11 +7902,11 @@
       <c r="D318">
         <v>12</v>
       </c>
-      <c r="E318">
-        <v>61.351199999999999</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E318" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>253</v>
       </c>
@@ -6618,11 +7919,11 @@
       <c r="D319">
         <v>14</v>
       </c>
-      <c r="E319">
-        <v>61.351399999999998</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E319" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>253</v>
       </c>
@@ -6635,8 +7936,8 @@
       <c r="D320">
         <v>16</v>
       </c>
-      <c r="E320">
-        <v>61.351599999999998</v>
+      <c r="E320" s="1" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
@@ -6652,8 +7953,8 @@
       <c r="D321">
         <v>8</v>
       </c>
-      <c r="E321">
-        <v>61.330800000000004</v>
+      <c r="E321" s="1" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
@@ -6669,8 +7970,8 @@
       <c r="D322">
         <v>10</v>
       </c>
-      <c r="E322">
-        <v>61.331000000000003</v>
+      <c r="E322" s="1" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
@@ -6686,8 +7987,8 @@
       <c r="D323">
         <v>12</v>
       </c>
-      <c r="E323">
-        <v>61.331200000000003</v>
+      <c r="E323" s="1" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
@@ -6703,8 +8004,8 @@
       <c r="D324">
         <v>14</v>
       </c>
-      <c r="E324">
-        <v>61.331400000000002</v>
+      <c r="E324" s="1" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
@@ -6720,8 +8021,8 @@
       <c r="D325">
         <v>16</v>
       </c>
-      <c r="E325">
-        <v>61.331600000000002</v>
+      <c r="E325" s="1" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
@@ -6737,8 +8038,8 @@
       <c r="D326">
         <v>8</v>
       </c>
-      <c r="E326">
-        <v>61.450800000000001</v>
+      <c r="E326" s="1" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
@@ -6754,8 +8055,8 @@
       <c r="D327">
         <v>10</v>
       </c>
-      <c r="E327">
-        <v>61.451000000000001</v>
+      <c r="E327" s="1" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
@@ -6771,8 +8072,8 @@
       <c r="D328">
         <v>12</v>
       </c>
-      <c r="E328">
-        <v>61.4512</v>
+      <c r="E328" s="1" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
@@ -6788,8 +8089,8 @@
       <c r="D329">
         <v>14</v>
       </c>
-      <c r="E329">
-        <v>61.4514</v>
+      <c r="E329" s="1" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
@@ -6805,8 +8106,8 @@
       <c r="D330">
         <v>16</v>
       </c>
-      <c r="E330">
-        <v>61.451599999999999</v>
+      <c r="E330" s="1" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
@@ -6822,8 +8123,8 @@
       <c r="D331">
         <v>8</v>
       </c>
-      <c r="E331">
-        <v>61.430799999999998</v>
+      <c r="E331" s="1" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
@@ -6839,8 +8140,8 @@
       <c r="D332">
         <v>10</v>
       </c>
-      <c r="E332">
-        <v>61.430999999999997</v>
+      <c r="E332" s="1" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
@@ -6856,8 +8157,8 @@
       <c r="D333">
         <v>12</v>
       </c>
-      <c r="E333">
-        <v>61.431199999999997</v>
+      <c r="E333" s="1" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
@@ -6873,8 +8174,8 @@
       <c r="D334">
         <v>14</v>
       </c>
-      <c r="E334">
-        <v>61.431399999999996</v>
+      <c r="E334" s="1" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
@@ -6890,8 +8191,8 @@
       <c r="D335">
         <v>16</v>
       </c>
-      <c r="E335">
-        <v>61.431600000000003</v>
+      <c r="E335" s="1" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
@@ -6907,8 +8208,8 @@
       <c r="D336">
         <v>8</v>
       </c>
-      <c r="E336">
-        <v>61.550800000000002</v>
+      <c r="E336" s="1" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
@@ -6924,8 +8225,8 @@
       <c r="D337">
         <v>10</v>
       </c>
-      <c r="E337">
-        <v>61.551000000000002</v>
+      <c r="E337" s="1" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
@@ -6941,8 +8242,8 @@
       <c r="D338">
         <v>12</v>
       </c>
-      <c r="E338">
-        <v>61.551200000000001</v>
+      <c r="E338" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
@@ -6958,8 +8259,8 @@
       <c r="D339">
         <v>14</v>
       </c>
-      <c r="E339">
-        <v>61.551400000000001</v>
+      <c r="E339" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
@@ -6975,8 +8276,8 @@
       <c r="D340">
         <v>16</v>
       </c>
-      <c r="E340">
-        <v>61.551600000000001</v>
+      <c r="E340" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
@@ -6992,8 +8293,8 @@
       <c r="D341">
         <v>8</v>
       </c>
-      <c r="E341">
-        <v>61.530799999999999</v>
+      <c r="E341" s="1" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
@@ -7009,8 +8310,8 @@
       <c r="D342">
         <v>10</v>
       </c>
-      <c r="E342">
-        <v>61.530999999999999</v>
+      <c r="E342" s="1" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
@@ -7026,8 +8327,8 @@
       <c r="D343">
         <v>12</v>
       </c>
-      <c r="E343">
-        <v>61.531199999999998</v>
+      <c r="E343" s="1" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
@@ -7043,8 +8344,8 @@
       <c r="D344">
         <v>14</v>
       </c>
-      <c r="E344">
-        <v>61.531399999999998</v>
+      <c r="E344" s="1" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
@@ -7060,8 +8361,8 @@
       <c r="D345">
         <v>16</v>
       </c>
-      <c r="E345">
-        <v>61.531599999999997</v>
+      <c r="E345" s="1" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
@@ -7077,8 +8378,8 @@
       <c r="D346">
         <v>8</v>
       </c>
-      <c r="E346">
-        <v>61.650799999999997</v>
+      <c r="E346" s="1" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
@@ -7094,8 +8395,8 @@
       <c r="D347">
         <v>10</v>
       </c>
-      <c r="E347">
-        <v>61.651000000000003</v>
+      <c r="E347" s="1" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
@@ -7111,8 +8412,8 @@
       <c r="D348">
         <v>12</v>
       </c>
-      <c r="E348">
-        <v>61.651200000000003</v>
+      <c r="E348" s="1" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
@@ -7128,8 +8429,8 @@
       <c r="D349">
         <v>14</v>
       </c>
-      <c r="E349">
-        <v>61.651400000000002</v>
+      <c r="E349" s="1" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
@@ -7145,8 +8446,8 @@
       <c r="D350">
         <v>16</v>
       </c>
-      <c r="E350">
-        <v>61.651600000000002</v>
+      <c r="E350" s="1" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
@@ -7162,13 +8463,13 @@
       <c r="D351">
         <v>8</v>
       </c>
-      <c r="E351">
-        <v>61.630800000000001</v>
+      <c r="E351" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>253</v>
+        <v>317</v>
       </c>
       <c r="B352" t="s">
         <v>18</v>
@@ -7179,8 +8480,8 @@
       <c r="D352">
         <v>10</v>
       </c>
-      <c r="E352">
-        <v>61.631</v>
+      <c r="E352" s="1" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
@@ -7196,8 +8497,8 @@
       <c r="D353">
         <v>12</v>
       </c>
-      <c r="E353">
-        <v>61.6312</v>
+      <c r="E353" s="1" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
@@ -7213,8 +8514,8 @@
       <c r="D354">
         <v>14</v>
       </c>
-      <c r="E354">
-        <v>61.631399999999999</v>
+      <c r="E354" s="1" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
@@ -7230,8 +8531,8 @@
       <c r="D355">
         <v>16</v>
       </c>
-      <c r="E355">
-        <v>61.631599999999999</v>
+      <c r="E355" s="1" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
@@ -7247,8 +8548,8 @@
       <c r="D356">
         <v>6</v>
       </c>
-      <c r="E356">
-        <v>61.750599999999999</v>
+      <c r="E356" s="1" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
@@ -7264,8 +8565,8 @@
       <c r="D357">
         <v>8</v>
       </c>
-      <c r="E357">
-        <v>61.750799999999998</v>
+      <c r="E357" s="1" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
@@ -7281,8 +8582,8 @@
       <c r="D358">
         <v>10</v>
       </c>
-      <c r="E358">
-        <v>61.750999999999998</v>
+      <c r="E358" s="1" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
@@ -7298,8 +8599,8 @@
       <c r="D359">
         <v>12</v>
       </c>
-      <c r="E359">
-        <v>61.751199999999997</v>
+      <c r="E359" s="1" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
@@ -7315,8 +8616,8 @@
       <c r="D360">
         <v>14</v>
       </c>
-      <c r="E360">
-        <v>61.751399999999997</v>
+      <c r="E360" s="1" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
@@ -7332,8 +8633,8 @@
       <c r="D361">
         <v>16</v>
       </c>
-      <c r="E361">
-        <v>61.751600000000003</v>
+      <c r="E361" s="1" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
@@ -7349,8 +8650,8 @@
       <c r="D362">
         <v>6</v>
       </c>
-      <c r="E362">
-        <v>61.730600000000003</v>
+      <c r="E362" s="1" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
@@ -7366,8 +8667,8 @@
       <c r="D363">
         <v>8</v>
       </c>
-      <c r="E363">
-        <v>61.730800000000002</v>
+      <c r="E363" s="1" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
@@ -7383,8 +8684,8 @@
       <c r="D364">
         <v>10</v>
       </c>
-      <c r="E364">
-        <v>61.731000000000002</v>
+      <c r="E364" s="1" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
@@ -7400,8 +8701,8 @@
       <c r="D365">
         <v>12</v>
       </c>
-      <c r="E365">
-        <v>61.731200000000001</v>
+      <c r="E365" s="1" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
@@ -7417,8 +8718,8 @@
       <c r="D366">
         <v>14</v>
       </c>
-      <c r="E366">
-        <v>61.731400000000001</v>
+      <c r="E366" s="1" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
@@ -7434,8 +8735,8 @@
       <c r="D367">
         <v>16</v>
       </c>
-      <c r="E367">
-        <v>61.7316</v>
+      <c r="E367" s="1" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
@@ -7451,8 +8752,8 @@
       <c r="D368">
         <v>6</v>
       </c>
-      <c r="E368">
-        <v>61.8506</v>
+      <c r="E368" s="1" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.3">
@@ -7468,8 +8769,8 @@
       <c r="D369">
         <v>8</v>
       </c>
-      <c r="E369">
-        <v>61.8508</v>
+      <c r="E369" s="1" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.3">
@@ -7485,8 +8786,8 @@
       <c r="D370">
         <v>10</v>
       </c>
-      <c r="E370">
-        <v>61.850999999999999</v>
+      <c r="E370" s="1" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.3">
@@ -7502,8 +8803,8 @@
       <c r="D371">
         <v>12</v>
       </c>
-      <c r="E371">
-        <v>61.851199999999999</v>
+      <c r="E371" s="1" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.3">
@@ -7519,8 +8820,8 @@
       <c r="D372">
         <v>6</v>
       </c>
-      <c r="E372">
-        <v>61.830599999999997</v>
+      <c r="E372" s="1" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.3">
@@ -7536,8 +8837,8 @@
       <c r="D373">
         <v>8</v>
       </c>
-      <c r="E373">
-        <v>61.830800000000004</v>
+      <c r="E373" s="1" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.3">
@@ -7553,8 +8854,8 @@
       <c r="D374">
         <v>10</v>
       </c>
-      <c r="E374">
-        <v>61.831000000000003</v>
+      <c r="E374" s="1" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.3">
@@ -7570,8 +8871,8 @@
       <c r="D375">
         <v>12</v>
       </c>
-      <c r="E375">
-        <v>61.831200000000003</v>
+      <c r="E375" s="1" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.3">
@@ -7587,8 +8888,8 @@
       <c r="D376">
         <v>6</v>
       </c>
-      <c r="E376">
-        <v>61.950600000000001</v>
+      <c r="E376" s="1" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.3">
@@ -7604,8 +8905,8 @@
       <c r="D377">
         <v>8</v>
       </c>
-      <c r="E377">
-        <v>61.950800000000001</v>
+      <c r="E377" s="1" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.3">
@@ -7621,8 +8922,8 @@
       <c r="D378">
         <v>10</v>
       </c>
-      <c r="E378">
-        <v>61.951000000000001</v>
+      <c r="E378" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.3">
@@ -7638,8 +8939,8 @@
       <c r="D379">
         <v>12</v>
       </c>
-      <c r="E379">
-        <v>61.9512</v>
+      <c r="E379" s="1" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.3">
@@ -7655,8 +8956,8 @@
       <c r="D380">
         <v>6</v>
       </c>
-      <c r="E380">
-        <v>61.930599999999998</v>
+      <c r="E380" s="1" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.3">
@@ -7672,8 +8973,8 @@
       <c r="D381">
         <v>8</v>
       </c>
-      <c r="E381">
-        <v>61.930799999999998</v>
+      <c r="E381" s="1" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.3">
@@ -7689,8 +8990,8 @@
       <c r="D382">
         <v>10</v>
       </c>
-      <c r="E382">
-        <v>61.930999999999997</v>
+      <c r="E382" s="1" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.3">
@@ -7706,8 +9007,8 @@
       <c r="D383">
         <v>12</v>
       </c>
-      <c r="E383">
-        <v>61.931199999999997</v>
+      <c r="E383" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
